--- a/shared_src/machine_learning/dewetting_gridsearch.xlsx
+++ b/shared_src/machine_learning/dewetting_gridsearch.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\Summer2018REU\shared_src\machine_learning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A046429-B00E-4AE6-A709-6AAB1450E3C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dewetting" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="21">
   <si>
     <t>Mean</t>
   </si>
@@ -23,6 +29,9 @@
   </si>
   <si>
     <t>Config</t>
+  </si>
+  <si>
+    <t>Reg</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -43,53 +52,44 @@
     <t>f1_class3</t>
   </si>
   <si>
-    <t>0.4106002618602713</t>
+    <t>(12, 8, 5, 4)</t>
   </si>
   <si>
-    <t>0.4623244064711367</t>
-  </si>
-  <si>
-    <t>0.4795657796154838</t>
-  </si>
-  <si>
-    <t>0.003192846726335935</t>
-  </si>
-  <si>
-    <t>0.05491699133720129</t>
-  </si>
-  <si>
-    <t>0.07215836448154839</t>
+    <t>(12, 5, 8, 4)</t>
   </si>
   <si>
     <t>(12, 10, 8, 4)</t>
   </si>
   <si>
-    <t>500</t>
+    <t>(12, 8, 8, 4)</t>
   </si>
   <si>
-    <t>600</t>
+    <t>(12, 10, 5, 4)</t>
   </si>
   <si>
-    <t>700</t>
+    <t>(12, 5, 5, 4)</t>
   </si>
   <si>
-    <t>800</t>
+    <t>l1-4</t>
   </si>
   <si>
-    <t>nan</t>
+    <t>l1-3</t>
   </si>
   <si>
-    <t>0.5671641791044776</t>
+    <t>na</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>l2-4</t>
+  </si>
+  <si>
+    <t>l2-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +238,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +290,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +483,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,133 +523,4004 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>0.8542857229709625</v>
+      </c>
+      <c r="C2">
+        <v>0.13906391769557791</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F2">
+        <v>700</v>
+      </c>
+      <c r="G2">
+        <v>0.82401124763127331</v>
+      </c>
+      <c r="I2">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J2">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K2">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>0.84857143759727482</v>
+      </c>
+      <c r="C3">
+        <v>0.15335698400572109</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="F3">
+        <v>800</v>
+      </c>
+      <c r="G3">
+        <v>0.85101626016260168</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3">
+        <v>0.875</v>
+      </c>
+      <c r="K3">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="B4">
+        <v>0.84285715222358704</v>
+      </c>
+      <c r="C4">
+        <v>0.10785477121807931</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="F4">
+        <v>700</v>
+      </c>
+      <c r="G4">
+        <v>0.81754385964912279</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J4">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K4">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>0.84285715222358704</v>
+      </c>
+      <c r="C5">
+        <v>0.10785477121807931</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>800</v>
+      </c>
+      <c r="G5">
+        <v>0.81754385964912279</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J5">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K5">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>0.84285715222358704</v>
+      </c>
+      <c r="C6">
+        <v>0.1539944248579235</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
+        <v>0.74997975708502018</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J6">
+        <v>0.84</v>
+      </c>
+      <c r="K6">
+        <v>0.92307692307692291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>94</v>
+      </c>
+      <c r="B7">
+        <v>0.84285715222358704</v>
+      </c>
+      <c r="C7">
+        <v>0.1539944248579235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>700</v>
+      </c>
+      <c r="G7">
+        <v>0.74997975708502018</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J7">
+        <v>0.84</v>
+      </c>
+      <c r="K7">
+        <v>0.92307692307692291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>0.84285715222358704</v>
+      </c>
+      <c r="C8">
+        <v>0.1253566266337641</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>800</v>
+      </c>
+      <c r="G8">
+        <v>0.74997975708502018</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J8">
+        <v>0.84</v>
+      </c>
+      <c r="K8">
+        <v>0.92307692307692291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.83714286684989925</v>
+      </c>
+      <c r="C9">
+        <v>0.12522631825485001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>700</v>
+      </c>
+      <c r="G9">
+        <v>0.82228997289972905</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J9">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K9">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.83714286684989925</v>
+      </c>
+      <c r="C10">
+        <v>0.12522631825485001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>800</v>
+      </c>
+      <c r="G10">
+        <v>0.82228997289972905</v>
+      </c>
+      <c r="H10">
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J10">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K10">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>0.83428572416305546</v>
+      </c>
+      <c r="C11">
+        <v>0.15846198625620961</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>600</v>
+      </c>
+      <c r="G11">
+        <v>0.82401124763127331</v>
+      </c>
+      <c r="I11">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J11">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K11">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>0.83428572416305546</v>
+      </c>
+      <c r="C12">
+        <v>0.1141427609419219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>700</v>
+      </c>
+      <c r="G12">
+        <v>0.72163985469641923</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>0.7</v>
+      </c>
+      <c r="J12">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K12">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>0.83428572416305546</v>
+      </c>
+      <c r="C13">
+        <v>0.15846198625620961</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>800</v>
+      </c>
+      <c r="G13">
+        <v>0.82401124763127331</v>
+      </c>
+      <c r="I13">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J13">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K13">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.83428572416305546</v>
+      </c>
+      <c r="C14">
+        <v>0.13080597097203719</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>0.81754385964912279</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J14">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K14">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>0.82857143878936768</v>
+      </c>
+      <c r="C15">
+        <v>0.13030575510164419</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>600</v>
+      </c>
+      <c r="G15">
+        <v>0.72562390017597189</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J15">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K15">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>0.82857143878936768</v>
+      </c>
+      <c r="C16">
+        <v>0.13030575510164419</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>700</v>
+      </c>
+      <c r="G16">
+        <v>0.72562390017597189</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J16">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K16">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.82857143878936768</v>
+      </c>
+      <c r="C17">
+        <v>0.13093072633751551</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>0.81754385964912279</v>
+      </c>
+      <c r="H17">
+        <v>0.8</v>
+      </c>
+      <c r="I17">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J17">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K17">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.82857143878936768</v>
+      </c>
+      <c r="C18">
+        <v>0.15856498398320831</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>800</v>
+      </c>
+      <c r="G18">
+        <v>0.81085781830462689</v>
+      </c>
+      <c r="H18">
+        <v>0.8</v>
+      </c>
+      <c r="I18">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J18">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K18">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>0.82285715341567989</v>
+      </c>
+      <c r="C19">
+        <v>0.15794599014094479</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>600</v>
+      </c>
+      <c r="G19">
+        <v>0.7871848739495797</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
+      </c>
+      <c r="I19">
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="J19">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K19">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.82285715341567989</v>
+      </c>
+      <c r="C20">
+        <v>0.14444827321609191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>600</v>
+      </c>
+      <c r="G20">
+        <v>0.82228997289972905</v>
+      </c>
+      <c r="H20">
+        <v>0.8</v>
+      </c>
+      <c r="I20">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J20">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K20">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0.82285715341567989</v>
+      </c>
+      <c r="C21">
+        <v>0.15794599014094479</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>800</v>
+      </c>
+      <c r="G21">
+        <v>0.81026850915627469</v>
+      </c>
+      <c r="H21">
+        <v>0.8</v>
+      </c>
+      <c r="I21">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J21">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="K21">
+        <v>0.83720930232558144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C22">
+        <v>0.14859888970219651</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>500</v>
+      </c>
+      <c r="G22">
+        <v>0.72163985469641923</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>0.7</v>
+      </c>
+      <c r="J22">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K22">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C23">
+        <v>0.14859888970219651</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>700</v>
+      </c>
+      <c r="G23">
+        <v>0.72562390017597189</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J23">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K23">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>87</v>
+      </c>
+      <c r="B24">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C24">
+        <v>0.14859888970219651</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>800</v>
+      </c>
+      <c r="G24">
+        <v>0.72562390017597189</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J24">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K24">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C25">
+        <v>0.14859888970219651</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>800</v>
+      </c>
+      <c r="G25">
+        <v>0.72163985469641923</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0.7</v>
+      </c>
+      <c r="J25">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K25">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C26">
+        <v>0.14859888970219651</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+      <c r="G26">
+        <v>0.72562390017597189</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J26">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K26">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C27">
+        <v>0.14859888970219651</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>600</v>
+      </c>
+      <c r="G27">
+        <v>0.72562390017597189</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J27">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K27">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C28">
+        <v>9.9999994039535522E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>800</v>
+      </c>
+      <c r="G28">
+        <v>0.72163985469641923</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>0.7</v>
+      </c>
+      <c r="J28">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K28">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C29">
+        <v>0.1734405634995784</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
+      </c>
+      <c r="G29">
+        <v>0.77894736842105272</v>
+      </c>
+      <c r="I29">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C30">
+        <v>0.14859888970219651</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>800</v>
+      </c>
+      <c r="G30">
+        <v>0.80379403794037929</v>
+      </c>
+      <c r="I30">
+        <v>0.7</v>
+      </c>
+      <c r="J30">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K30">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>0.81428572535514832</v>
+      </c>
+      <c r="C31">
+        <v>0.14859888970219651</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>500</v>
+      </c>
+      <c r="G31">
+        <v>0.82401124763127331</v>
+      </c>
+      <c r="I31">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J31">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K31">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0.80857143998146053</v>
+      </c>
+      <c r="C32">
+        <v>0.17287484120906549</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>700</v>
+      </c>
+      <c r="G32">
+        <v>0.81026850915627469</v>
+      </c>
+      <c r="H32">
+        <v>0.8</v>
+      </c>
+      <c r="I32">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J32">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="K32">
+        <v>0.83720930232558144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>0.80857143998146053</v>
+      </c>
+      <c r="C33">
+        <v>0.17287484120906549</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>800</v>
+      </c>
+      <c r="G33">
+        <v>0.7871848739495797</v>
+      </c>
+      <c r="H33">
+        <v>0.8</v>
+      </c>
+      <c r="I33">
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="J33">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K33">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>0.80857143998146053</v>
+      </c>
+      <c r="C34">
+        <v>0.1606364795324117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>500</v>
+      </c>
+      <c r="G34">
+        <v>0.82228997289972905</v>
+      </c>
+      <c r="H34">
+        <v>0.8</v>
+      </c>
+      <c r="I34">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J34">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K34">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>0.80857143998146053</v>
+      </c>
+      <c r="C35">
+        <v>0.13343192837638679</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+      <c r="G35">
+        <v>0.72562390017597189</v>
+      </c>
+      <c r="H35">
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J35">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K35">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>0.80857143998146053</v>
+      </c>
+      <c r="C36">
+        <v>0.17287484120906549</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>700</v>
+      </c>
+      <c r="G36">
+        <v>0.7871848739495797</v>
+      </c>
+      <c r="H36">
+        <v>0.8</v>
+      </c>
+      <c r="I36">
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="J36">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K36">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>0.80857143998146053</v>
+      </c>
+      <c r="C37">
+        <v>0.14738536694690621</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>500</v>
+      </c>
+      <c r="G37">
+        <v>0.7871848739495797</v>
+      </c>
+      <c r="H37">
+        <v>0.8</v>
+      </c>
+      <c r="I37">
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="J37">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K37">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>0.80857143998146053</v>
+      </c>
+      <c r="C38">
+        <v>0.11714285016059869</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <v>800</v>
+      </c>
+      <c r="G38">
+        <v>0.72562390017597189</v>
+      </c>
+      <c r="H38">
+        <v>0.5</v>
+      </c>
+      <c r="I38">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J38">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K38">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>114</v>
+      </c>
+      <c r="B39">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C39">
+        <v>0.12121829812109131</v>
+      </c>
+      <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E39" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F39">
+        <v>700</v>
+      </c>
+      <c r="G39">
+        <v>0.77210884353741494</v>
+      </c>
+      <c r="I39">
+        <v>0.6</v>
+      </c>
+      <c r="J39">
+        <v>0.81632653061224481</v>
+      </c>
+      <c r="K39">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C40">
+        <v>0.15064486332331239</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F40">
+        <v>500</v>
+      </c>
+      <c r="G40">
+        <v>0.7442564745196325</v>
+      </c>
+      <c r="I40">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J40">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K40">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C41">
+        <v>0.15064486332331239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F41">
+        <v>600</v>
+      </c>
+      <c r="G41">
+        <v>0.7442564745196325</v>
+      </c>
+      <c r="I41">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J41">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K41">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C42">
+        <v>0.15064486332331239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F42">
+        <v>700</v>
+      </c>
+      <c r="G42">
+        <v>0.7442564745196325</v>
+      </c>
+      <c r="I42">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J42">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K42">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>115</v>
+      </c>
+      <c r="B43">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C43">
+        <v>0.12121829812109131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43">
+        <v>800</v>
+      </c>
+      <c r="G43">
+        <v>0.77210884353741494</v>
+      </c>
+      <c r="I43">
+        <v>0.6</v>
+      </c>
+      <c r="J43">
+        <v>0.81632653061224481</v>
+      </c>
+      <c r="K43">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C44">
+        <v>0.16363223096991669</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <v>600</v>
+      </c>
+      <c r="G44">
+        <v>0.78157181571815715</v>
+      </c>
+      <c r="I44">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J44">
+        <v>0.8</v>
+      </c>
+      <c r="K44">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C45">
+        <v>0.12121829812109131</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>600</v>
+      </c>
+      <c r="G45">
+        <v>0.72163985469641923</v>
+      </c>
+      <c r="H45">
+        <v>0.5</v>
+      </c>
+      <c r="I45">
+        <v>0.7</v>
+      </c>
+      <c r="J45">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K45">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C46">
+        <v>0.16363223096991669</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>700</v>
+      </c>
+      <c r="G46">
+        <v>0.78157181571815715</v>
+      </c>
+      <c r="I46">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J46">
+        <v>0.8</v>
+      </c>
+      <c r="K46">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C47">
+        <v>0.16363223096991669</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47">
+        <v>800</v>
+      </c>
+      <c r="G47">
+        <v>0.78157181571815715</v>
+      </c>
+      <c r="I47">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J47">
+        <v>0.8</v>
+      </c>
+      <c r="K47">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C48">
+        <v>0.12121829812109131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>500</v>
+      </c>
+      <c r="G48">
+        <v>0.77210884353741494</v>
+      </c>
+      <c r="I48">
+        <v>0.6</v>
+      </c>
+      <c r="J48">
+        <v>0.81632653061224481</v>
+      </c>
+      <c r="K48">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C49">
+        <v>0.1864819188514476</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>600</v>
+      </c>
+      <c r="G49">
+        <v>0.77894736842105272</v>
+      </c>
+      <c r="I49">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J49">
+        <v>0.8</v>
+      </c>
+      <c r="K49">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C50">
+        <v>0.1864819188514476</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>700</v>
+      </c>
+      <c r="G50">
+        <v>0.77894736842105272</v>
+      </c>
+      <c r="I50">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J50">
+        <v>0.8</v>
+      </c>
+      <c r="K50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>38</v>
+      </c>
+      <c r="B51">
+        <v>0.79428572654724117</v>
+      </c>
+      <c r="C51">
+        <v>0.1351038824333165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>700</v>
+      </c>
+      <c r="G51">
+        <v>0.76012949039264832</v>
+      </c>
+      <c r="I51">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J51">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K51">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>0.79428572654724117</v>
+      </c>
+      <c r="C52">
+        <v>0.16202795467104161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52">
+        <v>500</v>
+      </c>
+      <c r="G52">
+        <v>0.78157181571815715</v>
+      </c>
+      <c r="I52">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J52">
+        <v>0.8</v>
+      </c>
+      <c r="K52">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <v>0.79428572654724117</v>
+      </c>
+      <c r="C53">
+        <v>0.16202795467104161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>600</v>
+      </c>
+      <c r="G53">
+        <v>0.80379403794037929</v>
+      </c>
+      <c r="I53">
+        <v>0.7</v>
+      </c>
+      <c r="J53">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K53">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>0.79428572654724117</v>
+      </c>
+      <c r="C54">
+        <v>0.16202795467104161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54">
+        <v>700</v>
+      </c>
+      <c r="G54">
+        <v>0.80379403794037929</v>
+      </c>
+      <c r="I54">
+        <v>0.7</v>
+      </c>
+      <c r="J54">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K54">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>0.79428572654724117</v>
+      </c>
+      <c r="C55">
+        <v>0.16202795467104161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>700</v>
+      </c>
+      <c r="G55">
+        <v>0.72163985469641923</v>
+      </c>
+      <c r="H55">
+        <v>0.5</v>
+      </c>
+      <c r="I55">
+        <v>0.7</v>
+      </c>
+      <c r="J55">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K55">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>97</v>
+      </c>
+      <c r="B56">
+        <v>0.79428572654724117</v>
+      </c>
+      <c r="C56">
+        <v>0.1351038824333165</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56">
+        <v>600</v>
+      </c>
+      <c r="G56">
+        <v>0.77022429798766068</v>
+      </c>
+      <c r="I56">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J56">
+        <v>0.76595744680851074</v>
+      </c>
+      <c r="K56">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <v>0.78857143819332121</v>
+      </c>
+      <c r="C57">
+        <v>0.19428570866584791</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57">
+        <v>700</v>
+      </c>
+      <c r="G57">
+        <v>0.85101626016260168</v>
+      </c>
+      <c r="I57">
+        <v>0.8</v>
+      </c>
+      <c r="J57">
+        <v>0.875</v>
+      </c>
+      <c r="K57">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>0.78857143819332121</v>
+      </c>
+      <c r="C58">
+        <v>0.20452033825095109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>600</v>
+      </c>
+      <c r="G58">
+        <v>0.81026850915627469</v>
+      </c>
+      <c r="H58">
+        <v>0.8</v>
+      </c>
+      <c r="I58">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J58">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="K58">
+        <v>0.83720930232558144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>0.78857143819332121</v>
+      </c>
+      <c r="C59">
+        <v>0.20452033825095109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59">
+        <v>500</v>
+      </c>
+      <c r="G59">
+        <v>0.81026850915627469</v>
+      </c>
+      <c r="H59">
+        <v>0.8</v>
+      </c>
+      <c r="I59">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J59">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="K59">
+        <v>0.83720930232558144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>31</v>
+      </c>
+      <c r="B60">
+        <v>0.78857143819332121</v>
+      </c>
+      <c r="C60">
+        <v>0.19428570866584791</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>800</v>
+      </c>
+      <c r="G60">
+        <v>0.71416502581022834</v>
+      </c>
+      <c r="H60">
+        <v>0.5</v>
+      </c>
+      <c r="I60">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J60">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="K60">
+        <v>0.83720930232558144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>0.78571429848670959</v>
+      </c>
+      <c r="C61">
+        <v>0.18702830712713661</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>800</v>
+      </c>
+      <c r="G61">
+        <v>0.77436676798378923</v>
+      </c>
+      <c r="I61">
+        <v>0.7</v>
+      </c>
+      <c r="J61">
+        <v>0.76595744680851074</v>
+      </c>
+      <c r="K61">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>0.78000001311302181</v>
+      </c>
+      <c r="C62">
+        <v>0.17428570389747619</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>700</v>
+      </c>
+      <c r="G62">
+        <v>0.81085781830462689</v>
+      </c>
+      <c r="H62">
+        <v>0.8</v>
+      </c>
+      <c r="I62">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J62">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K62">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>0.78000001311302181</v>
+      </c>
+      <c r="C63">
+        <v>0.16215386031959289</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>800</v>
+      </c>
+      <c r="G63">
+        <v>0.68927228786251338</v>
+      </c>
+      <c r="H63">
+        <v>0.5</v>
+      </c>
+      <c r="I63">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J63">
+        <v>0.77551020408163263</v>
+      </c>
+      <c r="K63">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>49</v>
+      </c>
+      <c r="B64">
+        <v>0.78000001311302181</v>
+      </c>
+      <c r="C64">
+        <v>0.17428570389747619</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>600</v>
+      </c>
+      <c r="G64">
+        <v>0.72163985469641923</v>
+      </c>
+      <c r="H64">
+        <v>0.5</v>
+      </c>
+      <c r="I64">
+        <v>0.7</v>
+      </c>
+      <c r="J64">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K64">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>83</v>
+      </c>
+      <c r="B65">
+        <v>0.78000001311302181</v>
+      </c>
+      <c r="C65">
+        <v>0.14958444951502489</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>800</v>
+      </c>
+      <c r="G65">
+        <v>0.76425120772946864</v>
+      </c>
+      <c r="I65">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J65">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="K65">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>113</v>
+      </c>
+      <c r="B66">
+        <v>0.78000001311302181</v>
+      </c>
+      <c r="C66">
+        <v>0.13525485340726351</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66">
+        <v>600</v>
+      </c>
+      <c r="G66">
+        <v>0.77210884353741494</v>
+      </c>
+      <c r="I66">
+        <v>0.6</v>
+      </c>
+      <c r="J66">
+        <v>0.81632653061224481</v>
+      </c>
+      <c r="K66">
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>39</v>
+      </c>
+      <c r="B67">
+        <v>0.78000001311302181</v>
+      </c>
+      <c r="C67">
+        <v>0.13525485340726351</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67">
+        <v>800</v>
+      </c>
+      <c r="G67">
+        <v>0.76012949039264832</v>
+      </c>
+      <c r="I67">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J67">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K67">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>0.78000001311302181</v>
+      </c>
+      <c r="C68">
+        <v>0.17428570389747619</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>800</v>
+      </c>
+      <c r="G68">
+        <v>0.77894736842105272</v>
+      </c>
+      <c r="I68">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J68">
+        <v>0.8</v>
+      </c>
+      <c r="K68">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>60</v>
+      </c>
+      <c r="B69">
+        <v>0.78000001013278963</v>
+      </c>
+      <c r="C69">
+        <v>0.18562634738691849</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>500</v>
+      </c>
+      <c r="G69">
+        <v>0.77436676798378923</v>
+      </c>
+      <c r="I69">
+        <v>0.7</v>
+      </c>
+      <c r="J69">
+        <v>0.76595744680851074</v>
+      </c>
+      <c r="K69">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>0.77428572773933413</v>
+      </c>
+      <c r="C70">
+        <v>0.14705266817735199</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>500</v>
+      </c>
+      <c r="G70">
+        <v>0.68927228786251338</v>
+      </c>
+      <c r="H70">
+        <v>0.5</v>
+      </c>
+      <c r="I70">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J70">
+        <v>0.77551020408163263</v>
+      </c>
+      <c r="K70">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>98</v>
+      </c>
+      <c r="B71">
+        <v>0.77428572773933413</v>
+      </c>
+      <c r="C71">
+        <v>0.116723982847368</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <v>700</v>
+      </c>
+      <c r="G71">
+        <v>0.77022429798766068</v>
+      </c>
+      <c r="I71">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J71">
+        <v>0.76595744680851074</v>
+      </c>
+      <c r="K71">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>0.77428572773933413</v>
+      </c>
+      <c r="C72">
+        <v>0.13244944337967479</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>600</v>
+      </c>
+      <c r="G72">
+        <v>0.68927228786251338</v>
+      </c>
+      <c r="H72">
+        <v>0.5</v>
+      </c>
+      <c r="I72">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J72">
+        <v>0.77551020408163263</v>
+      </c>
+      <c r="K72">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>92</v>
+      </c>
+      <c r="B73">
+        <v>0.77428572773933413</v>
+      </c>
+      <c r="C73">
+        <v>0.14705266817735199</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <v>500</v>
+      </c>
+      <c r="G73">
+        <v>0.74997975708502018</v>
+      </c>
+      <c r="H73">
+        <v>0.5</v>
+      </c>
+      <c r="I73">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J73">
+        <v>0.84</v>
+      </c>
+      <c r="K73">
+        <v>0.92307692307692291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>99</v>
+      </c>
+      <c r="B74">
+        <v>0.77428572773933413</v>
+      </c>
+      <c r="C74">
+        <v>0.116723982847368</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>800</v>
+      </c>
+      <c r="G74">
+        <v>0.77022429798766068</v>
+      </c>
+      <c r="I74">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J74">
+        <v>0.76595744680851074</v>
+      </c>
+      <c r="K74">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>0.77428572773933413</v>
+      </c>
+      <c r="C75">
+        <v>0.13244944337967479</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>800</v>
+      </c>
+      <c r="G75">
+        <v>0.68812847667950361</v>
+      </c>
+      <c r="H75">
+        <v>0.5</v>
+      </c>
+      <c r="I75">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J75">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K75">
+        <v>0.82926829268292668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>111</v>
+      </c>
+      <c r="B76">
+        <v>0.77428572475910185</v>
+      </c>
+      <c r="C76">
+        <v>0.19397032644620271</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76">
+        <v>800</v>
+      </c>
+      <c r="G76">
+        <v>0.76012949039264832</v>
+      </c>
+      <c r="I76">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J76">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K76">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>110</v>
+      </c>
+      <c r="B77">
+        <v>0.77428572475910185</v>
+      </c>
+      <c r="C77">
+        <v>0.19397032644620271</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77">
+        <v>700</v>
+      </c>
+      <c r="G77">
+        <v>0.76012949039264832</v>
+      </c>
+      <c r="I77">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J77">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K77">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>109</v>
+      </c>
+      <c r="B78">
+        <v>0.77428572475910185</v>
+      </c>
+      <c r="C78">
+        <v>0.19397032644620271</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78">
+        <v>600</v>
+      </c>
+      <c r="G78">
+        <v>0.76012949039264832</v>
+      </c>
+      <c r="I78">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J78">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K78">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>88</v>
+      </c>
+      <c r="B79">
+        <v>0.76857144236564634</v>
+      </c>
+      <c r="C79">
+        <v>0.15776499279394191</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79">
+        <v>500</v>
+      </c>
+      <c r="G79">
+        <v>0.85101626016260168</v>
+      </c>
+      <c r="I79">
+        <v>0.8</v>
+      </c>
+      <c r="J79">
+        <v>0.875</v>
+      </c>
+      <c r="K79">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>59</v>
+      </c>
+      <c r="B80">
+        <v>0.76571429967880245</v>
+      </c>
+      <c r="C80">
+        <v>0.1483514767089586</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80">
+        <v>800</v>
+      </c>
+      <c r="G80">
+        <v>0.7442564745196325</v>
+      </c>
+      <c r="I80">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J80">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K80">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>62</v>
+      </c>
+      <c r="B81">
+        <v>0.76571429967880245</v>
+      </c>
+      <c r="C81">
+        <v>0.17322863414590101</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81">
+        <v>700</v>
+      </c>
+      <c r="G81">
+        <v>0.77436676798378923</v>
+      </c>
+      <c r="I81">
+        <v>0.7</v>
+      </c>
+      <c r="J81">
+        <v>0.76595744680851074</v>
+      </c>
+      <c r="K81">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
+      <c r="B82">
+        <v>0.76571429967880245</v>
+      </c>
+      <c r="C82">
+        <v>0.17322863414590101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>600</v>
+      </c>
+      <c r="G82">
+        <v>0.81085781830462689</v>
+      </c>
+      <c r="H82">
+        <v>0.8</v>
+      </c>
+      <c r="I82">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J82">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K82">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>61</v>
+      </c>
+      <c r="B83">
+        <v>0.76571429669857027</v>
+      </c>
+      <c r="C83">
+        <v>0.1846342163957567</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83">
+        <v>600</v>
+      </c>
+      <c r="G83">
+        <v>0.77436676798378923</v>
+      </c>
+      <c r="I83">
+        <v>0.7</v>
+      </c>
+      <c r="J83">
+        <v>0.76595744680851074</v>
+      </c>
+      <c r="K83">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C84">
+        <v>0.15866791485025269</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>500</v>
+      </c>
+      <c r="G84">
+        <v>0.76425120772946864</v>
+      </c>
+      <c r="I84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J84">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="K84">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>73</v>
+      </c>
+      <c r="B85">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C85">
+        <v>0.15866791485025269</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85">
+        <v>600</v>
+      </c>
+      <c r="G85">
+        <v>0.7442564745196325</v>
+      </c>
+      <c r="I85">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J85">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K85">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>82</v>
+      </c>
+      <c r="B86">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C86">
+        <v>0.15866791485025269</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>700</v>
+      </c>
+      <c r="G86">
+        <v>0.76425120772946864</v>
+      </c>
+      <c r="I86">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J86">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="K86">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>96</v>
+      </c>
+      <c r="B87">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C87">
+        <v>0.14523730593905379</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+      <c r="G87">
+        <v>0.77022429798766068</v>
+      </c>
+      <c r="I87">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J87">
+        <v>0.76595744680851074</v>
+      </c>
+      <c r="K87">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>106</v>
+      </c>
+      <c r="B88">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C88">
+        <v>0.14523730593905379</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>700</v>
+      </c>
+      <c r="G88">
+        <v>0.68812847667950361</v>
+      </c>
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+      <c r="I88">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J88">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K88">
+        <v>0.82926829268292668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C89">
+        <v>0.14523730593905379</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89">
+        <v>700</v>
+      </c>
+      <c r="G89">
+        <v>0.68927228786251338</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="I89">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J89">
+        <v>0.77551020408163263</v>
+      </c>
+      <c r="K89">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>75</v>
+      </c>
+      <c r="B90">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C90">
+        <v>0.15866791485025269</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90">
+        <v>800</v>
+      </c>
+      <c r="G90">
+        <v>0.7442564745196325</v>
+      </c>
+      <c r="I90">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J90">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K90">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>74</v>
+      </c>
+      <c r="B91">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C91">
+        <v>0.15866791485025269</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91">
+        <v>700</v>
+      </c>
+      <c r="G91">
+        <v>0.7442564745196325</v>
+      </c>
+      <c r="I91">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J91">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K91">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>81</v>
+      </c>
+      <c r="B92">
+        <v>0.76000001430511477</v>
+      </c>
+      <c r="C92">
+        <v>0.15866791485025269</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>600</v>
+      </c>
+      <c r="G92">
+        <v>0.76425120772946864</v>
+      </c>
+      <c r="I92">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J92">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="K92">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>68</v>
+      </c>
+      <c r="B93">
+        <v>0.76000001132488249</v>
+      </c>
+      <c r="C93">
+        <v>0.14579829319495549</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93">
+        <v>500</v>
+      </c>
+      <c r="G93">
+        <v>0.7369614512471655</v>
+      </c>
+      <c r="I93">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J93">
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="K93">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>37</v>
+      </c>
+      <c r="B94">
+        <v>0.75428572893142698</v>
+      </c>
+      <c r="C94">
+        <v>0.12726317785063779</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>600</v>
+      </c>
+      <c r="G94">
+        <v>0.76012949039264832</v>
+      </c>
+      <c r="I94">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J94">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K94">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>72</v>
+      </c>
+      <c r="B95">
+        <v>0.75428572893142698</v>
+      </c>
+      <c r="C95">
+        <v>0.15555036317208901</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95">
+        <v>500</v>
+      </c>
+      <c r="G95">
+        <v>0.7442564745196325</v>
+      </c>
+      <c r="I95">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J95">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K95">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.75428572893142698</v>
+      </c>
+      <c r="C96">
+        <v>0.15555036317208901</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>600</v>
+      </c>
+      <c r="G96">
+        <v>0.67876039304610725</v>
+      </c>
+      <c r="I96">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J96">
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="K96">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.75428572893142698</v>
+      </c>
+      <c r="C97">
+        <v>0.15555036317208901</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>700</v>
+      </c>
+      <c r="G97">
+        <v>0.67876039304610725</v>
+      </c>
+      <c r="I97">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J97">
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="K97">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>0.75428572297096252</v>
+      </c>
+      <c r="C98">
+        <v>0.2008959504703757</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>500</v>
+      </c>
+      <c r="G98">
+        <v>0.71416502581022834</v>
+      </c>
+      <c r="H98">
+        <v>0.5</v>
+      </c>
+      <c r="I98">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J98">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="K98">
+        <v>0.83720930232558144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>89</v>
+      </c>
+      <c r="B99">
+        <v>0.74857144057750702</v>
+      </c>
+      <c r="C99">
+        <v>0.1877036252681675</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>600</v>
+      </c>
+      <c r="G99">
+        <v>0.85101626016260168</v>
+      </c>
+      <c r="I99">
+        <v>0.8</v>
+      </c>
+      <c r="J99">
+        <v>0.875</v>
+      </c>
+      <c r="K99">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>0.74571430087089541</v>
+      </c>
+      <c r="C100">
+        <v>0.15568150758723309</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>500</v>
+      </c>
+      <c r="G100">
+        <v>0.81085781830462689</v>
+      </c>
+      <c r="H100">
+        <v>0.8</v>
+      </c>
+      <c r="I100">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="J100">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K100">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>48</v>
+      </c>
+      <c r="B101">
+        <v>0.74571429789066312</v>
+      </c>
+      <c r="C101">
+        <v>0.2005909568198497</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101">
+        <v>500</v>
+      </c>
+      <c r="G101">
+        <v>0.72163985469641923</v>
+      </c>
+      <c r="H101">
+        <v>0.5</v>
+      </c>
+      <c r="I101">
+        <v>0.7</v>
+      </c>
+      <c r="J101">
+        <v>0.80851063829787229</v>
+      </c>
+      <c r="K101">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>71</v>
+      </c>
+      <c r="B102">
+        <v>0.74571429789066312</v>
+      </c>
+      <c r="C102">
+        <v>0.17999999452204951</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102">
+        <v>800</v>
+      </c>
+      <c r="G102">
+        <v>0.7369614512471655</v>
+      </c>
+      <c r="I102">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J102">
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="K102">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>117</v>
+      </c>
+      <c r="B103">
+        <v>0.74000001251697545</v>
+      </c>
+      <c r="C103">
+        <v>0.15250292436846699</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>600</v>
+      </c>
+      <c r="G103">
+        <v>0.69472341782241342</v>
+      </c>
+      <c r="I103">
+        <v>0.47058823529411759</v>
+      </c>
+      <c r="J103">
+        <v>0.78431372549019618</v>
+      </c>
+      <c r="K103">
+        <v>0.82926829268292668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>118</v>
+      </c>
+      <c r="B104">
+        <v>0.74000001251697545</v>
+      </c>
+      <c r="C104">
+        <v>0.15250292436846699</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104">
+        <v>700</v>
+      </c>
+      <c r="G104">
+        <v>0.69472341782241342</v>
+      </c>
+      <c r="I104">
+        <v>0.47058823529411759</v>
+      </c>
+      <c r="J104">
+        <v>0.78431372549019618</v>
+      </c>
+      <c r="K104">
+        <v>0.82926829268292668</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>119</v>
+      </c>
+      <c r="B105">
+        <v>0.74000001251697545</v>
+      </c>
+      <c r="C105">
+        <v>0.15250292436846699</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105">
+        <v>800</v>
+      </c>
+      <c r="G105">
+        <v>0.69472341782241342</v>
+      </c>
+      <c r="I105">
+        <v>0.47058823529411759</v>
+      </c>
+      <c r="J105">
+        <v>0.78431372549019618</v>
+      </c>
+      <c r="K105">
+        <v>0.82926829268292668</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>30</v>
+      </c>
+      <c r="B106">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C106">
+        <v>0.19813415167543341</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106">
+        <v>700</v>
+      </c>
+      <c r="G106">
+        <v>0.71416502581022834</v>
+      </c>
+      <c r="H106">
+        <v>0.5</v>
+      </c>
+      <c r="I106">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J106">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="K106">
+        <v>0.83720930232558144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>29</v>
+      </c>
+      <c r="B107">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C107">
+        <v>0.19813415167543341</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107">
+        <v>600</v>
+      </c>
+      <c r="G107">
+        <v>0.71416502581022834</v>
+      </c>
+      <c r="H107">
+        <v>0.5</v>
+      </c>
+      <c r="I107">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J107">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="K107">
+        <v>0.83720930232558144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>100</v>
+      </c>
+      <c r="B108">
+        <v>0.73428573012351994</v>
+      </c>
+      <c r="C108">
+        <v>0.16114386070597481</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>500</v>
+      </c>
+      <c r="G108">
+        <v>0.67876039304610725</v>
+      </c>
+      <c r="I108">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J108">
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="K108">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>32</v>
+      </c>
+      <c r="B109">
+        <v>0.73428573012351994</v>
+      </c>
+      <c r="C109">
+        <v>0.16114386070597481</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109">
+        <v>500</v>
+      </c>
+      <c r="G109">
+        <v>0.68486218776916452</v>
+      </c>
+      <c r="I109">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J109">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K109">
+        <v>0.79069767441860472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>69</v>
+      </c>
+      <c r="B110">
+        <v>0.73428572714328766</v>
+      </c>
+      <c r="C110">
+        <v>0.16164965497051159</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110">
+        <v>600</v>
+      </c>
+      <c r="G110">
+        <v>0.7369614512471655</v>
+      </c>
+      <c r="I110">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J110">
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="K110">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>76</v>
+      </c>
+      <c r="B111">
+        <v>0.73142858445644376</v>
+      </c>
+      <c r="C111">
+        <v>0.1762187825626024</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111">
+        <v>500</v>
+      </c>
+      <c r="G111">
+        <v>0.80379403794037929</v>
+      </c>
+      <c r="I111">
+        <v>0.7</v>
+      </c>
+      <c r="J111">
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="K111">
+        <v>0.87804878048780488</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>103</v>
+      </c>
+      <c r="B112">
+        <v>0.72571430206298826</v>
+      </c>
+      <c r="C112">
+        <v>0.1602039420953997</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112">
+        <v>800</v>
+      </c>
+      <c r="G112">
+        <v>0.67876039304610725</v>
+      </c>
+      <c r="I112">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J112">
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="K112">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>34</v>
+      </c>
+      <c r="B113">
+        <v>0.72571430206298826</v>
+      </c>
+      <c r="C113">
+        <v>0.16020394209539959</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113">
+        <v>700</v>
+      </c>
+      <c r="G113">
+        <v>0.68486218776916452</v>
+      </c>
+      <c r="I113">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J113">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K113">
+        <v>0.79069767441860472</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>33</v>
+      </c>
+      <c r="B114">
+        <v>0.72000001668930058</v>
+      </c>
+      <c r="C114">
+        <v>0.1684503096508205</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114">
+        <v>600</v>
+      </c>
+      <c r="G114">
+        <v>0.68486218776916452</v>
+      </c>
+      <c r="I114">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J114">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K114">
+        <v>0.79069767441860472</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>36</v>
+      </c>
+      <c r="B115">
+        <v>0.7200000137090683</v>
+      </c>
+      <c r="C115">
+        <v>0.15586493050815889</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>500</v>
+      </c>
+      <c r="G115">
+        <v>0.76012949039264832</v>
+      </c>
+      <c r="I115">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J115">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K115">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>70</v>
+      </c>
+      <c r="B116">
+        <v>0.7200000137090683</v>
+      </c>
+      <c r="C116">
+        <v>0.15638779261398231</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116">
+        <v>700</v>
+      </c>
+      <c r="G116">
+        <v>0.7369614512471655</v>
+      </c>
+      <c r="I116">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J116">
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="K116">
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>35</v>
+      </c>
+      <c r="B117">
+        <v>0.70571430027484894</v>
+      </c>
+      <c r="C117">
+        <v>0.18518605586023709</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117">
+        <v>800</v>
+      </c>
+      <c r="G117">
+        <v>0.68486218776916452</v>
+      </c>
+      <c r="I117">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J117">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K117">
+        <v>0.79069767441860472</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>108</v>
+      </c>
+      <c r="B118">
+        <v>0.70000001788139343</v>
+      </c>
+      <c r="C118">
+        <v>0.14413711433023729</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118">
+        <v>500</v>
+      </c>
+      <c r="G118">
+        <v>0.76012949039264832</v>
+      </c>
+      <c r="I118">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J118">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K118">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>105</v>
+      </c>
+      <c r="B119">
+        <v>0.69142858982086186</v>
+      </c>
+      <c r="C119">
+        <v>0.14101670792906951</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <v>600</v>
+      </c>
+      <c r="G119">
+        <v>0.68812847667950361</v>
+      </c>
+      <c r="H119">
+        <v>0.5</v>
+      </c>
+      <c r="I119">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J119">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K119">
+        <v>0.82926829268292668</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120">
+        <v>0.68571429848670962</v>
+      </c>
+      <c r="C120">
+        <v>0.17379321410149109</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>500</v>
+      </c>
+      <c r="G120">
+        <v>0.69472341782241342</v>
+      </c>
+      <c r="I120">
+        <v>0.47058823529411759</v>
+      </c>
+      <c r="J120">
+        <v>0.78431372549019618</v>
+      </c>
+      <c r="K120">
+        <v>0.82926829268292668</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>104</v>
+      </c>
+      <c r="B121">
+        <v>0.67142858803272243</v>
+      </c>
+      <c r="C121">
+        <v>0.15239582827257739</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121">
+        <v>500</v>
+      </c>
+      <c r="G121">
+        <v>0.68812847667950361</v>
+      </c>
+      <c r="H121">
+        <v>0.5</v>
+      </c>
+      <c r="I121">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J121">
+        <v>0.79166666666666674</v>
+      </c>
+      <c r="K121">
+        <v>0.82926829268292668</v>
       </c>
     </row>
   </sheetData>
